--- a/algstudent/s3/session3.xlsx
+++ b/algstudent/s3/session3.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEADC37-F9EB-47E8-A860-B8717124D702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="675" yWindow="975" windowWidth="22560" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Substraction" sheetId="1" r:id="rId1"/>
     <sheet name="Division" sheetId="2" r:id="rId2"/>
     <sheet name="TwoBasicEx" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>Table1</t>
   </si>
@@ -165,12 +177,45 @@
   </si>
   <si>
     <t>T4</t>
+  </si>
+  <si>
+    <t>fib/fib2</t>
+  </si>
+  <si>
+    <t>fib1/fib3</t>
+  </si>
+  <si>
+    <t>fib1/fib4</t>
+  </si>
+  <si>
+    <t>fib2/fib3</t>
+  </si>
+  <si>
+    <t>fib3/fib4</t>
+  </si>
+  <si>
+    <t>fib2/fib4</t>
+  </si>
+  <si>
+    <t>sum1/sum2</t>
+  </si>
+  <si>
+    <t>sum1/sum3</t>
+  </si>
+  <si>
+    <t>sum2/sum3</t>
+  </si>
+  <si>
+    <t>Comparisons</t>
+  </si>
+  <si>
+    <t>Fibonacci2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +231,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +241,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,6 +285,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,6 +302,1409 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Fibonacci</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> 1-3 compared</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16972003499562555"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.79972440944881895"/>
+          <c:h val="0.62792395742198892"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TwoBasicEx!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fib1 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>TwoBasicEx!$B$25:$B$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>TwoBasicEx!$B$26:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>TwoBasicEx!$C$26:$C$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>TwoBasicEx!$C$27:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.11E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.76E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.03E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.28E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08AE-4ED5-930F-1B535A2E1743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TwoBasicEx!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fib2 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>TwoBasicEx!$B$25:$B$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>TwoBasicEx!$B$26:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>TwoBasicEx!$D$26:$D$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>TwoBasicEx!$D$27:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.47E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9399999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7199999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0499999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.35E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8000000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08AE-4ED5-930F-1B535A2E1743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TwoBasicEx!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fib3 (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>TwoBasicEx!$B$25:$B$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>TwoBasicEx!$B$26:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>TwoBasicEx!$E$26:$E$36</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>TwoBasicEx!$E$27:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.7E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0199999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5599999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6599999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1799999999999998E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08AE-4ED5-930F-1B535A2E1743}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1915322607"/>
+        <c:axId val="1915298127"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1915322607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1915298127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1915298127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>t (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1915322607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4926AB18-2E5E-381B-1BC0-3DD267BDE6BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,11 +1969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L21"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,11 +3056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +3184,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D6:D16" si="3">$G7/$H7</f>
+        <f t="shared" ref="D7:D16" si="3">$G7/$H7</f>
         <v>7.5400000000000003E-5</v>
       </c>
       <c r="E7" s="4">
@@ -2144,7 +3606,7 @@
         <v>2000</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:D30" si="4">E24/F24</f>
+        <f t="shared" ref="D24:D29" si="4">E24/F24</f>
         <v>16.89</v>
       </c>
       <c r="E24">
@@ -2158,7 +3620,7 @@
         <v>2000</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" ref="J24:J30" si="5">K24/L24</f>
+        <f t="shared" ref="J24:J28" si="5">K24/L24</f>
         <v>103.5</v>
       </c>
       <c r="K24">
@@ -2170,7 +3632,7 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
-        <f t="shared" ref="C25:C32" si="6">C24*2</f>
+        <f t="shared" ref="C25:C30" si="6">C24*2</f>
         <v>4000</v>
       </c>
       <c r="D25" s="4">
@@ -2184,7 +3646,7 @@
         <v>100</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I31" si="7">I24*2</f>
+        <f t="shared" ref="I25:I29" si="7">I24*2</f>
         <v>4000</v>
       </c>
       <c r="J25" s="4">
@@ -2338,11 +3800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,15 +3813,18 @@
     <col min="3" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2390,8 +3855,20 @@
       <c r="K3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -2425,8 +3902,23 @@
       <c r="K4">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <f>C4/D4</f>
+        <v>0.61971830985915488</v>
+      </c>
+      <c r="O4" s="7">
+        <f>C4/E4</f>
+        <v>0.46808510638297873</v>
+      </c>
+      <c r="P4" s="8">
+        <f>D4/E4</f>
+        <v>0.75531914893617036</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <f>B4*2</f>
         <v>6</v>
@@ -2436,7 +3928,7 @@
         <v>6.6799999999999997E-5</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D19" si="1">$H5/$I5</f>
+        <f t="shared" ref="D5:D15" si="1">$H5/$I5</f>
         <v>1.15E-4</v>
       </c>
       <c r="E5" s="4">
@@ -2461,10 +3953,26 @@
       <c r="K5">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="3">
+        <f>M4*2</f>
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" ref="N5:N15" si="3">C5/D5</f>
+        <v>0.5808695652173913</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" ref="O5:O19" si="4">C5/E5</f>
+        <v>0.36703296703296701</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5:P15" si="5">D5/E5</f>
+        <v>0.63186813186813184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B20" si="3">B5*2</f>
+        <f t="shared" ref="B6:B19" si="6">B5*2</f>
         <v>12</v>
       </c>
       <c r="C6" s="4">
@@ -2497,10 +4005,26 @@
       <c r="K6">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="3">
+        <f t="shared" ref="M6:M19" si="7">M5*2</f>
+        <v>12</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="3"/>
+        <v>0.37344398340248963</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="4"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="5"/>
+        <v>0.63756613756613756</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="C7" s="4">
@@ -2533,10 +4057,26 @@
       <c r="K7">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="3">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.3116704805491991</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="4"/>
+        <v>0.17596899224806203</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="5"/>
+        <v>0.56459948320413444</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="C8" s="4">
@@ -2569,10 +4109,26 @@
       <c r="K8">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="3">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.2622754491017964</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="4"/>
+        <v>0.1396683673469388</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="5"/>
+        <v>0.53252551020408168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="C9" s="4">
@@ -2605,10 +4161,26 @@
       <c r="K9">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="3">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="3"/>
+        <v>0.24570024570024571</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="4"/>
+        <v>0.12690355329949241</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="5"/>
+        <v>0.51649746192893409</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="C10" s="4">
@@ -2641,10 +4213,26 @@
       <c r="K10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="3">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="3"/>
+        <v>0.23010752688172043</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="4"/>
+        <v>0.1117910447761194</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="5"/>
+        <v>0.48582089552238805</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>384</v>
       </c>
       <c r="C11" s="4">
@@ -2677,10 +4265,26 @@
       <c r="K11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="3">
+        <f t="shared" si="7"/>
+        <v>384</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="3"/>
+        <v>0.22462686567164178</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11488549618320611</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="5"/>
+        <v>0.51145038167938928</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>768</v>
       </c>
       <c r="C12" s="4">
@@ -2713,10 +4317,26 @@
       <c r="K12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="3">
+        <f t="shared" si="7"/>
+        <v>768</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.22702290076335876</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11617187499999999</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="5"/>
+        <v>0.51171875</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1536</v>
       </c>
       <c r="C13" s="4">
@@ -2749,10 +4369,26 @@
       <c r="K13">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="3">
+        <f t="shared" si="7"/>
+        <v>1536</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="3"/>
+        <v>0.23828125</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11730769230769232</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="5"/>
+        <v>0.49230769230769234</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3072</v>
       </c>
       <c r="C14" s="4">
@@ -2785,10 +4421,26 @@
       <c r="K14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="3">
+        <f t="shared" si="7"/>
+        <v>3072</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="3"/>
+        <v>0.22373540856031127</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11025886864813039</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="5"/>
+        <v>0.49280920421860019</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6144</v>
       </c>
       <c r="C15" s="4">
@@ -2821,10 +4473,26 @@
       <c r="K15">
         <v>10000</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="3">
+        <f t="shared" si="7"/>
+        <v>6144</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="3"/>
+        <v>0.22233009708737866</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="4"/>
+        <v>0.10988483685220729</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.49424184261036463</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12288</v>
       </c>
       <c r="C16" s="4">
@@ -2853,10 +4521,20 @@
       <c r="K16">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M16" s="3">
+        <f t="shared" si="7"/>
+        <v>12288</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11024769305488102</v>
+      </c>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24576</v>
       </c>
       <c r="C17" s="4">
@@ -2880,10 +4558,20 @@
       <c r="K17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="3">
+        <f t="shared" si="7"/>
+        <v>24576</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11243902439024392</v>
+      </c>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49152</v>
       </c>
       <c r="C18" s="4">
@@ -2907,10 +4595,20 @@
       <c r="K18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M18" s="3">
+        <f t="shared" si="7"/>
+        <v>49152</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7">
+        <f t="shared" si="4"/>
+        <v>0.11102409638554217</v>
+      </c>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>98304</v>
       </c>
       <c r="C19" s="4">
@@ -2934,13 +4632,26 @@
       <c r="K19">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M19" s="3">
+        <f t="shared" si="7"/>
+        <v>98304</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7">
+        <f t="shared" si="4"/>
+        <v>0.10988095238095237</v>
+      </c>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1</v>
       </c>
@@ -2981,7 +4692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>10</v>
       </c>
@@ -3026,24 +4737,24 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>15</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:C35" si="4">G27/H27</f>
+        <f t="shared" ref="C27:C35" si="8">G27/H27</f>
         <v>1.11E-4</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" ref="D27:D36" si="5">I27/J27</f>
+        <f t="shared" ref="D27:D36" si="9">I27/J27</f>
         <v>1.47E-4</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" ref="E27:E36" si="6">K27/L27</f>
+        <f t="shared" ref="E27:E36" si="10">K27/L27</f>
         <v>2.7E-4</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" ref="F27:F36" si="7">M27/N27</f>
+        <f t="shared" ref="F27:F33" si="11">M27/N27</f>
         <v>2.4680000000000001E-2</v>
       </c>
       <c r="G27">
@@ -3071,24 +4782,24 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>20</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3300000000000001E-4</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8699999999999999E-4</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.5E-4</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.26939999999999997</v>
       </c>
       <c r="G28">
@@ -3116,24 +4827,24 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.55E-4</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.2100000000000001E-4</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4.2099999999999999E-4</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="G29">
@@ -3161,24 +4872,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.76E-4</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.5900000000000001E-4</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.0199999999999995E-4</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>33.64</v>
       </c>
       <c r="G30">
@@ -3206,24 +4917,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>35</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.03E-4</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.9399999999999999E-4</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.5599999999999996E-4</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>383</v>
       </c>
       <c r="G31">
@@ -3251,24 +4962,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>40</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.2599999999999999E-4</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.3E-4</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.3000000000000003E-4</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4096</v>
       </c>
       <c r="G32">
@@ -3301,19 +5012,19 @@
         <v>45</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4899999999999998E-4</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.7199999999999999E-4</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.0100000000000002E-4</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>45221</v>
       </c>
       <c r="G33">
@@ -3346,18 +5057,18 @@
         <v>50</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7399999999999999E-4</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.0499999999999998E-4</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.6599999999999997E-4</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G34">
@@ -3390,15 +5101,15 @@
         <v>55</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.8899999999999998E-4</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.35E-4</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="F35" s="4"/>
@@ -3430,11 +5141,11 @@
         <v>3.28E-4</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9.1799999999999998E-4</v>
       </c>
       <c r="F36" s="4"/>
@@ -3457,7 +5168,328 @@
         <v>1000000</v>
       </c>
     </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" s="7">
+        <f>C26/D26</f>
+        <v>0.76068376068376065</v>
+      </c>
+      <c r="D41" s="7">
+        <f>C26/E26</f>
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" ref="E41:E48" si="12">C26/F26</f>
+        <v>4.0271493212669679E-2</v>
+      </c>
+      <c r="F41" s="8">
+        <f>D26/E26</f>
+        <v>0.65730337078651691</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" ref="G41:G48" si="13">D26/F26</f>
+        <v>5.2941176470588228E-2</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" ref="H41:H48" si="14">E26/F26</f>
+        <v>8.0542986425339358E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>15</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" ref="C42:C51" si="15">C27/D27</f>
+        <v>0.75510204081632659</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" ref="D42:D51" si="16">C27/E27</f>
+        <v>0.41111111111111109</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="12"/>
+        <v>4.4975688816855756E-3</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" ref="F42:F51" si="17">D27/E27</f>
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="13"/>
+        <v>5.9562398703403565E-3</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="14"/>
+        <v>1.094003241491086E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" s="7">
+        <f t="shared" si="15"/>
+        <v>0.71122994652406424</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="16"/>
+        <v>0.38</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="12"/>
+        <v>4.9368968077208623E-4</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="17"/>
+        <v>0.53428571428571425</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="13"/>
+        <v>6.9413511507052713E-4</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="14"/>
+        <v>1.2991833704528583E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>25</v>
+      </c>
+      <c r="C44" s="7">
+        <f t="shared" si="15"/>
+        <v>0.70135746606334837</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="16"/>
+        <v>0.36817102137767221</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="12"/>
+        <v>5.1666666666666664E-5</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="17"/>
+        <v>0.52494061757719712</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="13"/>
+        <v>7.3666666666666664E-5</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="14"/>
+        <v>1.4033333333333332E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45" s="7">
+        <f t="shared" si="15"/>
+        <v>0.67953667953667951</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="16"/>
+        <v>0.35059760956175301</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="12"/>
+        <v>5.2318668252080856E-6</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="17"/>
+        <v>0.51593625498007978</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="13"/>
+        <v>7.6991676575505356E-6</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="14"/>
+        <v>1.492271105826397E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>35</v>
+      </c>
+      <c r="C46" s="7">
+        <f t="shared" si="15"/>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="16"/>
+        <v>0.36510791366906475</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="12"/>
+        <v>5.3002610966057438E-7</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="17"/>
+        <v>0.52877697841726623</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="13"/>
+        <v>7.6762402088772839E-7</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="14"/>
+        <v>1.4516971279373367E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47" s="7">
+        <f t="shared" si="15"/>
+        <v>0.68484848484848482</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="16"/>
+        <v>0.35873015873015868</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="12"/>
+        <v>5.5175781249999998E-8</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="17"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="13"/>
+        <v>8.056640625E-8</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="14"/>
+        <v>1.5380859375000001E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" s="7">
+        <f t="shared" si="15"/>
+        <v>0.66935483870967738</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="16"/>
+        <v>0.35520684736091296</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="12"/>
+        <v>5.5062913248269609E-9</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="17"/>
+        <v>0.53067047075606277</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="13"/>
+        <v>8.2262665575728088E-9</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="14"/>
+        <v>1.5501647464673492E-8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="C49" s="7">
+        <f t="shared" si="15"/>
+        <v>0.67654320987654326</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="16"/>
+        <v>0.35770234986945171</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8">
+        <f t="shared" si="17"/>
+        <v>0.52872062663185382</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>55</v>
+      </c>
+      <c r="C50" s="7">
+        <f t="shared" si="15"/>
+        <v>0.66436781609195394</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="16"/>
+        <v>0.34404761904761899</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8">
+        <f t="shared" si="17"/>
+        <v>0.51785714285714279</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="C51" s="7">
+        <f t="shared" si="15"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="16"/>
+        <v>0.35729847494553379</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8">
+        <f t="shared" si="17"/>
+        <v>0.52287581699346408</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>